--- a/表2.xlsx
+++ b/表2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21570" windowHeight="11850"/>
+    <workbookView windowWidth="11745" windowHeight="8790"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="824">
   <si>
     <t>TemplateType=fptcustom</t>
   </si>
@@ -2477,6 +2477,9 @@
     <t>Organic Hemp Gummies Edibles Gummy Advanced Extra Strength High Potency Made with Natural Hemp Oil Low Sugar Supplements Made in USA</t>
   </si>
   <si>
+    <t>ASIN</t>
+  </si>
+  <si>
     <t>Parent</t>
   </si>
   <si>
@@ -2484,9 +2487,6 @@
   </si>
   <si>
     <t>PartialUpdate</t>
-  </si>
-  <si>
-    <t>ASIN</t>
   </si>
   <si>
     <t>Child</t>
@@ -3724,12 +3724,12 @@
   <dimension ref="A1:QC6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK16" sqref="AK16"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="3" max="3" width="9" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="6" max="9" width="9" hidden="1" customWidth="1"/>
     <col min="11" max="35" width="9" hidden="1" customWidth="1"/>
     <col min="40" max="48" width="9" hidden="1" customWidth="1"/>
@@ -6902,7 +6902,9 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
+      <c r="J4" s="5" t="s">
+        <v>816</v>
+      </c>
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="10"/>
@@ -6930,7 +6932,7 @@
       <c r="AI4" s="5"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5" t="s">
@@ -7348,11 +7350,11 @@
         <v>812</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -7360,7 +7362,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
@@ -7817,7 +7819,7 @@
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -7825,7 +7827,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
